--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixreichenbach/MDB/GitHub/jupyter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168E4EB0-B3D1-E34B-A37D-7B2DC3EEA2E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA2C5D1-D90D-6A45-9A08-3180824B1C8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{7FF03AD8-C9E3-924D-950B-D1B0538B4EB9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Person" sheetId="1" r:id="rId1"/>
+    <sheet name="Phone" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Felix</t>
   </si>
@@ -52,6 +53,39 @@
   </si>
   <si>
     <t>Müller</t>
+  </si>
+  <si>
+    <t>personID</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>123-456-789</t>
+  </si>
+  <si>
+    <t>123-456-790</t>
+  </si>
+  <si>
+    <t>123-456-791</t>
+  </si>
+  <si>
+    <t>123-456-792</t>
+  </si>
+  <si>
+    <t>123-456-793</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>mobile</t>
   </si>
 </sst>
 </file>
@@ -87,8 +121,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,49 +438,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E704DF6C-9407-EF49-88E7-6813D40822A6}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA04C85-4B1C-A348-825B-A597EAE5EA8D}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
